--- a/온독지수범위.xlsx
+++ b/온독지수범위.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\내 드라이브\0331_온독지수\사고도구어 모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\내 드라이브\0331_온독지수\온독지수 스캔 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89DC01B-F066-4A36-95C8-9234273A282E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA5DD3A-76B3-4DA3-A0D0-F634BC0B18AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>온독지수 범위</t>
   </si>
@@ -116,6 +116,22 @@
   </si>
   <si>
     <t>220~280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500~550</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550~600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학생 수준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인 고급 수준</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,16 +203,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,6 +674,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
